--- a/source/ar4MP/ar4MP/tasks/manager_based/ar4mp/sample_trajectory.xlsx
+++ b/source/ar4MP/ar4MP/tasks/manager_based/ar4mp/sample_trajectory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juwon\Documents\Robotics\TCD Research\Annin package\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ar4MP\source\ar4MP\ar4MP\tasks\manager_based\ar4mp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2458E09-35F5-4869-B68D-D3F71511D41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5871DC4-E636-4218-9F15-38AE7848C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="1100" windowWidth="19200" windowHeight="11170" xr2:uid="{7F4BE759-0D34-4AF3-A48C-240A9A30550C}"/>
+    <workbookView xWindow="2120" yWindow="2120" windowWidth="19200" windowHeight="11260" xr2:uid="{7F4BE759-0D34-4AF3-A48C-240A9A30550C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -405,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA091BA-B66E-41E2-A5CD-4214D2BAC3C5}">
-  <dimension ref="B1:D101"/>
+  <dimension ref="B1:D301"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -426,815 +426,3303 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2">
-        <v>30</v>
+        <v>0.4</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3">
-        <v>27</v>
+        <v>0.40629999999999999</v>
       </c>
       <c r="C3">
-        <v>4.5999999999999996</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="D3" s="1">
-        <v>10</v>
+        <v>0.30420000000000003</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4">
-        <v>30</v>
+        <v>0.41260000000000002</v>
       </c>
       <c r="C4">
-        <v>4.2</v>
+        <v>8.3999999999999995E-3</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>0.30840000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5">
-        <v>40</v>
+        <v>0.41889999999999999</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6">
-        <v>34</v>
+        <v>0.42509999999999998</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>1.6500000000000001E-2</v>
       </c>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>0.3165</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7">
-        <v>30</v>
+        <v>0.43130000000000002</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2.0400000000000001E-2</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>0.32040000000000002</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8">
-        <v>27</v>
+        <v>0.43740000000000001</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>2.4199999999999999E-2</v>
       </c>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>0.32419999999999999</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9">
-        <v>30</v>
+        <v>0.44350000000000001</v>
       </c>
       <c r="C9">
-        <v>2.2000000000000002</v>
+        <v>2.7799999999999998E-2</v>
       </c>
       <c r="D9" s="1">
-        <v>10</v>
+        <v>0.32779999999999998</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10">
-        <v>40</v>
+        <v>0.44950000000000001</v>
       </c>
       <c r="C10">
-        <v>1.8</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="D10" s="1">
-        <v>10</v>
+        <v>0.33110000000000001</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11">
-        <v>34</v>
+        <v>0.45540000000000003</v>
       </c>
       <c r="C11">
-        <v>1.4</v>
+        <v>3.4299999999999997E-2</v>
       </c>
       <c r="D11" s="1">
-        <v>10</v>
+        <v>0.33429999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12">
-        <v>30</v>
+        <v>0.4612</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>3.73E-2</v>
       </c>
       <c r="D12" s="1">
-        <v>10</v>
+        <v>0.33729999999999999</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13">
-        <v>27</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="D13" s="1">
-        <v>10</v>
+        <v>0.33989999999999998</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14">
-        <v>30</v>
+        <v>0.47249999999999998</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>4.2299999999999997E-2</v>
       </c>
       <c r="D14" s="1">
-        <v>10</v>
+        <v>0.34229999999999999</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15">
-        <v>40</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="C15">
-        <v>-0.2</v>
+        <v>4.4400000000000002E-2</v>
       </c>
       <c r="D15" s="1">
-        <v>10</v>
+        <v>0.34439999999999998</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16">
-        <v>34</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="C16">
-        <v>-0.6</v>
+        <v>4.6199999999999998E-2</v>
       </c>
       <c r="D16" s="1">
-        <v>10</v>
+        <v>0.34620000000000001</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17">
-        <v>30</v>
+        <v>0.4884</v>
       </c>
       <c r="C17">
-        <v>-1.00000000000001</v>
+        <v>4.7600000000000003E-2</v>
       </c>
       <c r="D17" s="1">
-        <v>10</v>
+        <v>0.34760000000000002</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18">
-        <v>30</v>
+        <v>0.49340000000000001</v>
       </c>
       <c r="C18">
-        <v>-1.4000000000000099</v>
+        <v>4.87E-2</v>
       </c>
       <c r="D18" s="1">
-        <v>10</v>
+        <v>0.34870000000000001</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>27</v>
+        <v>0.49830000000000002</v>
       </c>
       <c r="C19">
-        <v>-1.80000000000001</v>
+        <v>4.9500000000000002E-2</v>
       </c>
       <c r="D19" s="1">
-        <v>10</v>
+        <v>0.34949999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>30</v>
+        <v>0.503</v>
       </c>
       <c r="C20">
-        <v>-2.3400000000000101</v>
+        <v>4.99E-2</v>
       </c>
       <c r="D20" s="1">
-        <v>10</v>
+        <v>0.34989999999999999</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>40</v>
+        <v>0.50739999999999996</v>
       </c>
       <c r="C21">
-        <v>-2.6000000000000099</v>
+        <v>0.05</v>
       </c>
       <c r="D21" s="1">
-        <v>10</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22">
-        <v>34</v>
+        <v>0.51180000000000003</v>
       </c>
       <c r="C22">
-        <v>-3.0000000000000102</v>
+        <v>4.9700000000000001E-2</v>
       </c>
       <c r="D22" s="1">
-        <v>10</v>
+        <v>0.34970000000000001</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23">
-        <v>30</v>
+        <v>0.51590000000000003</v>
       </c>
       <c r="C23">
-        <v>-3.4000000000000101</v>
+        <v>4.9099999999999998E-2</v>
       </c>
       <c r="D23" s="1">
-        <v>10</v>
+        <v>0.34910000000000002</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24">
-        <v>30</v>
+        <v>0.51980000000000004</v>
       </c>
       <c r="C24">
-        <v>-3.80000000000001</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="D24" s="1">
-        <v>10</v>
+        <v>0.34810000000000002</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25">
-        <v>27</v>
+        <v>0.52339999999999998</v>
       </c>
       <c r="C25">
-        <v>-4.3400000000000096</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="D25" s="1">
-        <v>10</v>
+        <v>0.3468</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26">
-        <v>30</v>
+        <v>0.52690000000000003</v>
       </c>
       <c r="C26">
-        <v>-4.6000000000000103</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="D26" s="1">
-        <v>10</v>
+        <v>0.34510000000000002</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B27">
-        <v>40</v>
+        <v>0.5302</v>
       </c>
       <c r="C27">
-        <v>-5</v>
+        <v>4.3099999999999999E-2</v>
       </c>
       <c r="D27" s="1">
-        <v>10</v>
+        <v>0.34310000000000002</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28">
-        <v>34</v>
+        <v>0.53320000000000001</v>
       </c>
       <c r="C28">
-        <v>-5.4</v>
+        <v>4.0800000000000003E-2</v>
       </c>
       <c r="D28" s="1">
-        <v>10</v>
+        <v>0.34079999999999999</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29">
-        <v>30</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="C29">
-        <v>-5.8</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="D29" s="1">
-        <v>10</v>
+        <v>0.33829999999999999</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30">
-        <v>30</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="C30">
-        <v>-6.2</v>
+        <v>3.5400000000000001E-2</v>
       </c>
       <c r="D30" s="1">
-        <v>10</v>
+        <v>0.33539999999999998</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31">
-        <v>30</v>
+        <v>0.54079999999999995</v>
       </c>
       <c r="C31">
-        <v>-6.6</v>
+        <v>3.2399999999999998E-2</v>
       </c>
       <c r="D31" s="1">
-        <v>10</v>
+        <v>0.33239999999999997</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32">
-        <v>30</v>
+        <v>0.54290000000000005</v>
       </c>
       <c r="C32">
-        <v>-7</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="D32" s="1">
-        <v>10</v>
+        <v>0.32900000000000001</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33">
-        <v>27</v>
+        <v>0.54459999999999997</v>
       </c>
       <c r="C33">
-        <v>-7.4</v>
+        <v>2.5499999999999998E-2</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>0.32550000000000001</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34">
-        <v>30</v>
+        <v>0.54620000000000002</v>
       </c>
       <c r="C34">
-        <v>-7.8</v>
+        <v>2.18E-2</v>
       </c>
       <c r="D34" s="1">
-        <v>10</v>
+        <v>0.32179999999999997</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35">
-        <v>40</v>
+        <v>0.54749999999999999</v>
       </c>
       <c r="C35">
-        <v>-8.1999999999999993</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="D35" s="1">
-        <v>10</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B36">
-        <v>34</v>
+        <v>0.54849999999999999</v>
       </c>
       <c r="C36">
-        <v>-8.6</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D36" s="1">
-        <v>10</v>
+        <v>0.314</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37">
-        <v>30</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="C37">
-        <v>-9</v>
+        <v>9.9000000000000008E-3</v>
       </c>
       <c r="D37" s="1">
-        <v>10</v>
+        <v>0.30990000000000001</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38">
-        <v>30</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="C38">
-        <v>-9.4</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="D38" s="1">
-        <v>10</v>
+        <v>0.30580000000000002</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39">
-        <v>27</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C39">
-        <v>-9.8000000000000007</v>
+        <v>1.6000000000000001E-3</v>
       </c>
       <c r="D39" s="1">
-        <v>10</v>
+        <v>0.30159999999999998</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40">
-        <v>30</v>
+        <v>0.54990000000000006</v>
       </c>
       <c r="C40">
-        <v>-27.2</v>
+        <v>-2.5999999999999999E-3</v>
       </c>
       <c r="D40" s="1">
-        <v>10</v>
+        <v>0.2974</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41">
-        <v>40</v>
+        <v>0.54969999999999997</v>
       </c>
       <c r="C41">
-        <v>-27.6</v>
+        <v>-6.7999999999999996E-3</v>
       </c>
       <c r="D41" s="1">
-        <v>10</v>
+        <v>0.29320000000000002</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B42">
-        <v>30</v>
+        <v>0.54910000000000003</v>
       </c>
       <c r="C42">
-        <v>-11</v>
+        <v>-1.09E-2</v>
       </c>
       <c r="D42" s="1">
-        <v>10</v>
+        <v>0.28910000000000002</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43">
-        <v>27</v>
+        <v>0.54830000000000001</v>
       </c>
       <c r="C43">
-        <v>-11.4</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D43" s="1">
-        <v>10</v>
+        <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44">
-        <v>30</v>
+        <v>0.54720000000000002</v>
       </c>
       <c r="C44">
-        <v>-11.8</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="D44" s="1">
-        <v>10</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45">
-        <v>40</v>
+        <v>0.54579999999999995</v>
       </c>
       <c r="C45">
-        <v>-12.2</v>
+        <v>-2.2800000000000001E-2</v>
       </c>
       <c r="D45" s="1">
-        <v>10</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46">
-        <v>34</v>
+        <v>0.54420000000000002</v>
       </c>
       <c r="C46">
-        <v>-12.6</v>
+        <v>-2.64E-2</v>
       </c>
       <c r="D46" s="1">
-        <v>10</v>
+        <v>0.27360000000000001</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B47">
-        <v>30</v>
+        <v>0.54239999999999999</v>
       </c>
       <c r="C47">
-        <v>-13</v>
+        <v>-2.9899999999999999E-2</v>
       </c>
       <c r="D47" s="1">
-        <v>10</v>
+        <v>0.27010000000000001</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48">
-        <v>30</v>
+        <v>0.5403</v>
       </c>
       <c r="C48">
-        <v>-13.4</v>
+        <v>-3.32E-2</v>
       </c>
       <c r="D48" s="1">
-        <v>10</v>
+        <v>0.26679999999999998</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49">
-        <v>30</v>
+        <v>0.53790000000000004</v>
       </c>
       <c r="C49">
-        <v>-13.8</v>
+        <v>-3.6200000000000003E-2</v>
       </c>
       <c r="D49" s="1">
-        <v>10</v>
+        <v>0.26379999999999998</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50">
-        <v>27</v>
+        <v>0.5353</v>
       </c>
       <c r="C50">
-        <v>-14.2</v>
+        <v>-3.9E-2</v>
       </c>
       <c r="D50" s="1">
-        <v>10</v>
+        <v>0.26100000000000001</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51">
-        <v>30</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="C51">
-        <v>-14.6</v>
+        <v>-4.1399999999999999E-2</v>
       </c>
       <c r="D51" s="1">
-        <v>10</v>
+        <v>0.2586</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52">
-        <v>40</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="C52">
-        <v>-15</v>
+        <v>-4.36E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>10</v>
+        <v>0.25640000000000002</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53">
-        <v>34</v>
+        <v>0.52610000000000001</v>
       </c>
       <c r="C53">
-        <v>-15.4</v>
+        <v>-4.5499999999999999E-2</v>
       </c>
       <c r="D53" s="1">
-        <v>10</v>
+        <v>0.2545</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54">
-        <v>27</v>
+        <v>0.52249999999999996</v>
       </c>
       <c r="C54">
-        <v>-15.8</v>
+        <v>-4.7100000000000003E-2</v>
       </c>
       <c r="D54" s="1">
-        <v>10</v>
+        <v>0.25290000000000001</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55">
-        <v>30</v>
+        <v>0.51880000000000004</v>
       </c>
       <c r="C55">
-        <v>-16.2</v>
+        <v>-4.8399999999999999E-2</v>
       </c>
       <c r="D55" s="1">
-        <v>10</v>
+        <v>0.25159999999999999</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56">
-        <v>40</v>
+        <v>0.51490000000000002</v>
       </c>
       <c r="C56">
-        <v>-16.600000000000001</v>
+        <v>-4.9299999999999997E-2</v>
       </c>
       <c r="D56" s="1">
-        <v>10</v>
+        <v>0.25069999999999998</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57">
-        <v>34</v>
+        <v>0.51070000000000004</v>
       </c>
       <c r="C57">
-        <v>-17</v>
+        <v>-4.9799999999999997E-2</v>
       </c>
       <c r="D57" s="1">
-        <v>10</v>
+        <v>0.25019999999999998</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B58">
-        <v>30</v>
+        <v>0.50629999999999997</v>
       </c>
       <c r="C58">
-        <v>-17.399999999999999</v>
+        <v>-0.05</v>
       </c>
       <c r="D58" s="1">
-        <v>10</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B59">
-        <v>30</v>
+        <v>0.50180000000000002</v>
       </c>
       <c r="C59">
-        <v>-17.8</v>
+        <v>-4.9799999999999997E-2</v>
       </c>
       <c r="D59" s="1">
-        <v>10</v>
+        <v>0.25019999999999998</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B60">
-        <v>30</v>
+        <v>0.49709999999999999</v>
       </c>
       <c r="C60">
-        <v>-18.2</v>
+        <v>-4.9299999999999997E-2</v>
       </c>
       <c r="D60" s="1">
-        <v>10</v>
+        <v>0.25069999999999998</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B61">
-        <v>30</v>
+        <v>0.49220000000000003</v>
       </c>
       <c r="C61">
-        <v>-18.600000000000001</v>
+        <v>-4.8500000000000001E-2</v>
       </c>
       <c r="D61" s="1">
-        <v>10</v>
+        <v>0.2515</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B62">
-        <v>25</v>
+        <v>0.48709999999999998</v>
       </c>
       <c r="C62">
-        <v>-19</v>
+        <v>-4.7300000000000002E-2</v>
       </c>
       <c r="D62" s="1">
-        <v>10</v>
+        <v>0.25269999999999998</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B63">
-        <v>30</v>
+        <v>0.4819</v>
       </c>
       <c r="C63">
-        <v>-19.399999999999999</v>
+        <v>-4.58E-2</v>
       </c>
       <c r="D63" s="1">
-        <v>10</v>
+        <v>0.25419999999999998</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64">
-        <v>30</v>
+        <v>0.47660000000000002</v>
       </c>
       <c r="C64">
-        <v>-19.8</v>
+        <v>-4.3900000000000002E-2</v>
       </c>
       <c r="D64" s="1">
-        <v>10</v>
+        <v>0.25609999999999999</v>
       </c>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B65">
-        <v>30</v>
+        <v>0.47110000000000002</v>
       </c>
       <c r="C65">
-        <v>-34.200000000000003</v>
+        <v>-4.1700000000000001E-2</v>
       </c>
       <c r="D65" s="1">
-        <v>10</v>
+        <v>0.25829999999999997</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D66" s="1"/>
+      <c r="B66">
+        <v>0.46550000000000002</v>
+      </c>
+      <c r="C66">
+        <v>-3.9300000000000002E-2</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.26069999999999999</v>
+      </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D67" s="1"/>
+      <c r="B67">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="C67">
+        <v>-3.6499999999999998E-2</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0.26350000000000001</v>
+      </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D68" s="1"/>
+      <c r="B68">
+        <v>0.45390000000000003</v>
+      </c>
+      <c r="C68">
+        <v>-3.3500000000000002E-2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0.26650000000000001</v>
+      </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D69" s="1"/>
+      <c r="B69">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="C69">
+        <v>-3.0300000000000001E-2</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0.2697</v>
+      </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D70" s="1"/>
+      <c r="B70">
+        <v>0.442</v>
+      </c>
+      <c r="C70">
+        <v>-2.69E-2</v>
+      </c>
+      <c r="D70" s="1">
+        <v>0.27310000000000001</v>
+      </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D71" s="1"/>
+      <c r="B71">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="C71">
+        <v>-2.3199999999999998E-2</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0.27679999999999999</v>
+      </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D72" s="1"/>
+      <c r="B72">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="C72">
+        <v>-1.9400000000000001E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0.28060000000000002</v>
+      </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D73" s="1"/>
+      <c r="B73">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="C73">
+        <v>-1.55E-2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0.28449999999999998</v>
+      </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D74" s="1"/>
+      <c r="B74">
+        <v>0.4173</v>
+      </c>
+      <c r="C74">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="D74" s="1">
+        <v>0.28849999999999998</v>
+      </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D75" s="1"/>
+      <c r="B75">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="C75">
+        <v>-7.3000000000000001E-3</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.29270000000000002</v>
+      </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D76" s="1"/>
+      <c r="B76">
+        <v>0.4047</v>
+      </c>
+      <c r="C76">
+        <v>-3.2000000000000002E-3</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.29680000000000001</v>
+      </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D77" s="1"/>
+      <c r="B77">
+        <v>0.39839999999999998</v>
+      </c>
+      <c r="C77">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.30109999999999998</v>
+      </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D78" s="1"/>
+      <c r="B78">
+        <v>0.3921</v>
+      </c>
+      <c r="C78">
+        <v>5.1999999999999998E-3</v>
+      </c>
+      <c r="D78" s="1">
+        <v>0.30520000000000003</v>
+      </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D79" s="1"/>
+      <c r="B79">
+        <v>0.38579999999999998</v>
+      </c>
+      <c r="C79">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0.30940000000000001</v>
+      </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D101" s="1"/>
+      <c r="B80">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="C80">
+        <v>1.35E-2</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0.3135</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>0.37330000000000002</v>
+      </c>
+      <c r="C81">
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0.3175</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>0.36720000000000003</v>
+      </c>
+      <c r="C82">
+        <v>2.1399999999999999E-2</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.32140000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="C83">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="D83" s="1">
+        <v>0.3251</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="C84">
+        <v>2.86E-2</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.3286</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="C85">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0.34310000000000002</v>
+      </c>
+      <c r="C86">
+        <v>3.5099999999999999E-2</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.33510000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0.33739999999999998</v>
+      </c>
+      <c r="C87">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.33789999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0.33169999999999999</v>
+      </c>
+      <c r="C88">
+        <v>4.0500000000000001E-2</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0.34050000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>0.3261</v>
+      </c>
+      <c r="C89">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0.34289999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0.32069999999999999</v>
+      </c>
+      <c r="C90">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0.34489999999999998</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0.31540000000000001</v>
+      </c>
+      <c r="C91">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="D91" s="1">
+        <v>0.34660000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>0.31030000000000002</v>
+      </c>
+      <c r="C92">
+        <v>4.7899999999999998E-2</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0.34789999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0.30530000000000002</v>
+      </c>
+      <c r="C93">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0.34899999999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0.30049999999999999</v>
+      </c>
+      <c r="C94">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0.34960000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0.2959</v>
+      </c>
+      <c r="C95">
+        <v>0.05</v>
+      </c>
+      <c r="D95" s="1">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>0.29149999999999998</v>
+      </c>
+      <c r="C96">
+        <v>4.99E-2</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0.34989999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0.28720000000000001</v>
+      </c>
+      <c r="C97">
+        <v>4.9599999999999998E-2</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0.34960000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0.28310000000000002</v>
+      </c>
+      <c r="C98">
+        <v>4.8800000000000003E-2</v>
+      </c>
+      <c r="D98" s="1">
+        <v>0.3488</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0.27929999999999999</v>
+      </c>
+      <c r="C99">
+        <v>4.7800000000000002E-2</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0.3478</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>0.2757</v>
+      </c>
+      <c r="C100">
+        <v>4.6399999999999997E-2</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0.34639999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>0.2722</v>
+      </c>
+      <c r="C101">
+        <v>4.4600000000000001E-2</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0.34460000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0.26910000000000001</v>
+      </c>
+      <c r="C102">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="D102">
+        <v>0.34260000000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0.2661</v>
+      </c>
+      <c r="C103">
+        <v>4.02E-2</v>
+      </c>
+      <c r="D103">
+        <v>0.3402</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>0.26340000000000002</v>
+      </c>
+      <c r="C104">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="D104">
+        <v>0.33760000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>0.26090000000000002</v>
+      </c>
+      <c r="C105">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="D105">
+        <v>0.3347</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0.25869999999999999</v>
+      </c>
+      <c r="C106">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="D106">
+        <v>0.33160000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>0.25669999999999998</v>
+      </c>
+      <c r="C107">
+        <v>2.8199999999999999E-2</v>
+      </c>
+      <c r="D107">
+        <v>0.32819999999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0.25490000000000002</v>
+      </c>
+      <c r="C108">
+        <v>2.46E-2</v>
+      </c>
+      <c r="D108">
+        <v>0.3246</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>0.2535</v>
+      </c>
+      <c r="C109">
+        <v>2.0899999999999998E-2</v>
+      </c>
+      <c r="D109">
+        <v>0.32090000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>0.25219999999999998</v>
+      </c>
+      <c r="C110">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="D110">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="C111">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D111">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0.25059999999999999</v>
+      </c>
+      <c r="C112">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="D112">
+        <v>0.30890000000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B113">
+        <v>0.25019999999999998</v>
+      </c>
+      <c r="C113">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="D113">
+        <v>0.30470000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B114">
+        <v>0.25</v>
+      </c>
+      <c r="C114">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="D114">
+        <v>0.30049999999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B115">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="C115">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="D115">
+        <v>0.29630000000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B116">
+        <v>0.2505</v>
+      </c>
+      <c r="C116">
+        <v>-7.7999999999999996E-3</v>
+      </c>
+      <c r="D116">
+        <v>0.29220000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B117">
+        <v>0.25109999999999999</v>
+      </c>
+      <c r="C117">
+        <v>-1.2E-2</v>
+      </c>
+      <c r="D117">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B118">
+        <v>0.252</v>
+      </c>
+      <c r="C118">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="D118">
+        <v>0.28399999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B119">
+        <v>0.25309999999999999</v>
+      </c>
+      <c r="C119">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="D119">
+        <v>0.28010000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B120">
+        <v>0.2545</v>
+      </c>
+      <c r="C120">
+        <v>-2.3699999999999999E-2</v>
+      </c>
+      <c r="D120">
+        <v>0.27629999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B121">
+        <v>0.25619999999999998</v>
+      </c>
+      <c r="C121">
+        <v>-2.7300000000000001E-2</v>
+      </c>
+      <c r="D121">
+        <v>0.2727</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B122">
+        <v>0.2581</v>
+      </c>
+      <c r="C122">
+        <v>-3.0700000000000002E-2</v>
+      </c>
+      <c r="D122">
+        <v>0.26929999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B123">
+        <v>0.26029999999999998</v>
+      </c>
+      <c r="C123">
+        <v>-3.39E-2</v>
+      </c>
+      <c r="D123">
+        <v>0.2661</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B124">
+        <v>0.26269999999999999</v>
+      </c>
+      <c r="C124">
+        <v>-3.6900000000000002E-2</v>
+      </c>
+      <c r="D124">
+        <v>0.2631</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B125">
+        <v>0.26540000000000002</v>
+      </c>
+      <c r="C125">
+        <v>-3.9600000000000003E-2</v>
+      </c>
+      <c r="D125">
+        <v>0.26040000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B126">
+        <v>0.26829999999999998</v>
+      </c>
+      <c r="C126">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="D126">
+        <v>0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B127">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="C127">
+        <v>-4.4200000000000003E-2</v>
+      </c>
+      <c r="D127">
+        <v>0.25580000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B128">
+        <v>0.27479999999999999</v>
+      </c>
+      <c r="C128">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+      <c r="D128">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B129">
+        <v>0.27839999999999998</v>
+      </c>
+      <c r="C129">
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="D129">
+        <v>0.2525</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B130">
+        <v>0.28220000000000001</v>
+      </c>
+      <c r="C130">
+        <v>-4.8599999999999997E-2</v>
+      </c>
+      <c r="D130">
+        <v>0.25140000000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B131">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="C131">
+        <v>-4.9399999999999999E-2</v>
+      </c>
+      <c r="D131">
+        <v>0.25059999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B132">
+        <v>0.29039999999999999</v>
+      </c>
+      <c r="C132">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="D132">
+        <v>0.25009999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B133">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="C133">
+        <v>-0.05</v>
+      </c>
+      <c r="D133">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B134">
+        <v>0.2994</v>
+      </c>
+      <c r="C134">
+        <v>-4.9799999999999997E-2</v>
+      </c>
+      <c r="D134">
+        <v>0.25019999999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B135">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="C135">
+        <v>-4.9200000000000001E-2</v>
+      </c>
+      <c r="D135">
+        <v>0.25080000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B136">
+        <v>0.30909999999999999</v>
+      </c>
+      <c r="C136">
+        <v>-4.82E-2</v>
+      </c>
+      <c r="D136">
+        <v>0.25180000000000002</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B137">
+        <v>0.31409999999999999</v>
+      </c>
+      <c r="C137">
+        <v>-4.6899999999999997E-2</v>
+      </c>
+      <c r="D137">
+        <v>0.25309999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B138">
+        <v>0.31940000000000002</v>
+      </c>
+      <c r="C138">
+        <v>-4.53E-2</v>
+      </c>
+      <c r="D138">
+        <v>0.25469999999999998</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B139">
+        <v>0.32479999999999998</v>
+      </c>
+      <c r="C139">
+        <v>-4.3400000000000001E-2</v>
+      </c>
+      <c r="D139">
+        <v>0.25659999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B140">
+        <v>0.33029999999999998</v>
+      </c>
+      <c r="C140">
+        <v>-4.1099999999999998E-2</v>
+      </c>
+      <c r="D140">
+        <v>0.25890000000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B141">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="C141">
+        <v>-3.8600000000000002E-2</v>
+      </c>
+      <c r="D141">
+        <v>0.26140000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B142">
+        <v>0.3417</v>
+      </c>
+      <c r="C142">
+        <v>-3.5799999999999998E-2</v>
+      </c>
+      <c r="D142">
+        <v>0.26419999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B143">
+        <v>0.34749999999999998</v>
+      </c>
+      <c r="C143">
+        <v>-3.2800000000000003E-2</v>
+      </c>
+      <c r="D143">
+        <v>0.26719999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B144">
+        <v>0.35349999999999998</v>
+      </c>
+      <c r="C144">
+        <v>-2.9499999999999998E-2</v>
+      </c>
+      <c r="D144">
+        <v>0.27050000000000002</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B145">
+        <v>0.35949999999999999</v>
+      </c>
+      <c r="C145">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="D145">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B146">
+        <v>0.36559999999999998</v>
+      </c>
+      <c r="C146">
+        <v>-2.23E-2</v>
+      </c>
+      <c r="D146">
+        <v>0.2777</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B147">
+        <v>0.37180000000000002</v>
+      </c>
+      <c r="C147">
+        <v>-1.8499999999999999E-2</v>
+      </c>
+      <c r="D147">
+        <v>0.28149999999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B148">
+        <v>0.378</v>
+      </c>
+      <c r="C148">
+        <v>-1.4500000000000001E-2</v>
+      </c>
+      <c r="D148">
+        <v>0.28549999999999998</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B149">
+        <v>0.38429999999999997</v>
+      </c>
+      <c r="C149">
+        <v>-1.04E-2</v>
+      </c>
+      <c r="D149">
+        <v>0.28960000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B150">
+        <v>0.39050000000000001</v>
+      </c>
+      <c r="C150">
+        <v>-6.3E-3</v>
+      </c>
+      <c r="D150">
+        <v>0.29370000000000002</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B151">
+        <v>0.39679999999999999</v>
+      </c>
+      <c r="C151">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+      <c r="D151">
+        <v>0.2979</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B152">
+        <v>0.4032</v>
+      </c>
+      <c r="C152">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="D152">
+        <v>0.30209999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B153">
+        <v>0.40949999999999998</v>
+      </c>
+      <c r="C153">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D153">
+        <v>0.30630000000000002</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B154">
+        <v>0.41570000000000001</v>
+      </c>
+      <c r="C154">
+        <v>1.04E-2</v>
+      </c>
+      <c r="D154">
+        <v>0.31040000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B155">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="C155">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="D155">
+        <v>0.3145</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B156">
+        <v>0.42820000000000003</v>
+      </c>
+      <c r="C156">
+        <v>1.8499999999999999E-2</v>
+      </c>
+      <c r="D156">
+        <v>0.31850000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B157">
+        <v>0.43440000000000001</v>
+      </c>
+      <c r="C157">
+        <v>2.23E-2</v>
+      </c>
+      <c r="D157">
+        <v>0.32229999999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B158">
+        <v>0.4405</v>
+      </c>
+      <c r="C158">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="D158">
+        <v>0.32600000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B159">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="C159">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="D159">
+        <v>0.32950000000000002</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B160">
+        <v>0.45250000000000001</v>
+      </c>
+      <c r="C160">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="D160">
+        <v>0.33279999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B161">
+        <v>0.45829999999999999</v>
+      </c>
+      <c r="C161">
+        <v>3.5799999999999998E-2</v>
+      </c>
+      <c r="D161">
+        <v>0.33579999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B162">
+        <v>0.46410000000000001</v>
+      </c>
+      <c r="C162">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="D162">
+        <v>0.33860000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B163">
+        <v>0.46970000000000001</v>
+      </c>
+      <c r="C163">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="D163">
+        <v>0.34110000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B164">
+        <v>0.47520000000000001</v>
+      </c>
+      <c r="C164">
+        <v>4.3400000000000001E-2</v>
+      </c>
+      <c r="D164">
+        <v>0.34339999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B165">
+        <v>0.48060000000000003</v>
+      </c>
+      <c r="C165">
+        <v>4.53E-2</v>
+      </c>
+      <c r="D165">
+        <v>0.3453</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B166">
+        <v>0.4859</v>
+      </c>
+      <c r="C166">
+        <v>4.6899999999999997E-2</v>
+      </c>
+      <c r="D166">
+        <v>0.34689999999999999</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B167">
+        <v>0.4909</v>
+      </c>
+      <c r="C167">
+        <v>4.82E-2</v>
+      </c>
+      <c r="D167">
+        <v>0.34820000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B168">
+        <v>0.49590000000000001</v>
+      </c>
+      <c r="C168">
+        <v>4.9200000000000001E-2</v>
+      </c>
+      <c r="D168">
+        <v>0.34920000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B169">
+        <v>0.50060000000000004</v>
+      </c>
+      <c r="C169">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="D169">
+        <v>0.3498</v>
+      </c>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B170">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="C170">
+        <v>0.05</v>
+      </c>
+      <c r="D170">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B171">
+        <v>0.50960000000000005</v>
+      </c>
+      <c r="C171">
+        <v>4.99E-2</v>
+      </c>
+      <c r="D171">
+        <v>0.34989999999999999</v>
+      </c>
+    </row>
+    <row r="172" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B172">
+        <v>0.51380000000000003</v>
+      </c>
+      <c r="C172">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="D172">
+        <v>0.34939999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B173">
+        <v>0.51780000000000004</v>
+      </c>
+      <c r="C173">
+        <v>4.8599999999999997E-2</v>
+      </c>
+      <c r="D173">
+        <v>0.34860000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B174">
+        <v>0.52159999999999995</v>
+      </c>
+      <c r="C174">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="D174">
+        <v>0.34749999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B175">
+        <v>0.5252</v>
+      </c>
+      <c r="C175">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D175">
+        <v>0.34599999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B176">
+        <v>0.52859999999999996</v>
+      </c>
+      <c r="C176">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="D176">
+        <v>0.34420000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B177">
+        <v>0.53169999999999995</v>
+      </c>
+      <c r="C177">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="D177">
+        <v>0.34200000000000003</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B178">
+        <v>0.53459999999999996</v>
+      </c>
+      <c r="C178">
+        <v>3.9600000000000003E-2</v>
+      </c>
+      <c r="D178">
+        <v>0.33960000000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B179">
+        <v>0.5373</v>
+      </c>
+      <c r="C179">
+        <v>3.6900000000000002E-2</v>
+      </c>
+      <c r="D179">
+        <v>0.33689999999999998</v>
+      </c>
+    </row>
+    <row r="180" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B180">
+        <v>0.53969999999999996</v>
+      </c>
+      <c r="C180">
+        <v>3.39E-2</v>
+      </c>
+      <c r="D180">
+        <v>0.33389999999999997</v>
+      </c>
+    </row>
+    <row r="181" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B181">
+        <v>0.54190000000000005</v>
+      </c>
+      <c r="C181">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="D181">
+        <v>0.33069999999999999</v>
+      </c>
+    </row>
+    <row r="182" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B182">
+        <v>0.54379999999999995</v>
+      </c>
+      <c r="C182">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="D182">
+        <v>0.32729999999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B183">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="C183">
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="D183">
+        <v>0.32369999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B184">
+        <v>0.54690000000000005</v>
+      </c>
+      <c r="C184">
+        <v>1.9900000000000001E-2</v>
+      </c>
+      <c r="D184">
+        <v>0.31990000000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B185">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="C185">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D185">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row r="186" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B186">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="C186">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D186">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="187" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B187">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="C187">
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="D187">
+        <v>0.30780000000000002</v>
+      </c>
+    </row>
+    <row r="188" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B188">
+        <v>0.54990000000000006</v>
+      </c>
+      <c r="C188">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="D188">
+        <v>0.30370000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B189">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C189">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+      <c r="D189">
+        <v>0.29949999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B190">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="C190">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="D190">
+        <v>0.29530000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B191">
+        <v>0.5494</v>
+      </c>
+      <c r="C191">
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="D191">
+        <v>0.29110000000000003</v>
+      </c>
+    </row>
+    <row r="192" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B192">
+        <v>0.54869999999999997</v>
+      </c>
+      <c r="C192">
+        <v>-1.2999999999999999E-2</v>
+      </c>
+      <c r="D192">
+        <v>0.28699999999999998</v>
+      </c>
+    </row>
+    <row r="193" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B193">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="C193">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="D193">
+        <v>0.28299999999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B194">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="C194">
+        <v>-2.0899999999999998E-2</v>
+      </c>
+      <c r="D194">
+        <v>0.27910000000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B195">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="C195">
+        <v>-2.46E-2</v>
+      </c>
+      <c r="D195">
+        <v>0.27539999999999998</v>
+      </c>
+    </row>
+    <row r="196" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B196">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="C196">
+        <v>-2.8199999999999999E-2</v>
+      </c>
+      <c r="D196">
+        <v>0.27179999999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B197">
+        <v>0.5413</v>
+      </c>
+      <c r="C197">
+        <v>-3.1600000000000003E-2</v>
+      </c>
+      <c r="D197">
+        <v>0.26840000000000003</v>
+      </c>
+    </row>
+    <row r="198" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B198">
+        <v>0.53910000000000002</v>
+      </c>
+      <c r="C198">
+        <v>-3.4700000000000002E-2</v>
+      </c>
+      <c r="D198">
+        <v>0.26529999999999998</v>
+      </c>
+    </row>
+    <row r="199" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B199">
+        <v>0.53659999999999997</v>
+      </c>
+      <c r="C199">
+        <v>-3.7600000000000001E-2</v>
+      </c>
+      <c r="D199">
+        <v>0.26240000000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B200">
+        <v>0.53390000000000004</v>
+      </c>
+      <c r="C200">
+        <v>-4.02E-2</v>
+      </c>
+      <c r="D200">
+        <v>0.25979999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B201">
+        <v>0.53090000000000004</v>
+      </c>
+      <c r="C201">
+        <v>-4.2599999999999999E-2</v>
+      </c>
+      <c r="D201">
+        <v>0.25740000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B202">
+        <v>0.52780000000000005</v>
+      </c>
+      <c r="C202">
+        <v>-4.4600000000000001E-2</v>
+      </c>
+      <c r="D202">
+        <v>0.25540000000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B203">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="C203">
+        <v>-4.6399999999999997E-2</v>
+      </c>
+      <c r="D203">
+        <v>0.25359999999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B204">
+        <v>0.52070000000000005</v>
+      </c>
+      <c r="C204">
+        <v>-4.7800000000000002E-2</v>
+      </c>
+      <c r="D204">
+        <v>0.25219999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B205">
+        <v>0.51690000000000003</v>
+      </c>
+      <c r="C205">
+        <v>-4.8800000000000003E-2</v>
+      </c>
+      <c r="D205">
+        <v>0.25119999999999998</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B206">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="C206">
+        <v>-4.9599999999999998E-2</v>
+      </c>
+      <c r="D206">
+        <v>0.25040000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B207">
+        <v>0.50849999999999995</v>
+      </c>
+      <c r="C207">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="D207">
+        <v>0.25009999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B208">
+        <v>0.50409999999999999</v>
+      </c>
+      <c r="C208">
+        <v>-0.05</v>
+      </c>
+      <c r="D208">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B209">
+        <v>0.4995</v>
+      </c>
+      <c r="C209">
+        <v>-4.9599999999999998E-2</v>
+      </c>
+      <c r="D209">
+        <v>0.25040000000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B210">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="C210">
+        <v>-4.9000000000000002E-2</v>
+      </c>
+      <c r="D210">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B211">
+        <v>0.48970000000000002</v>
+      </c>
+      <c r="C211">
+        <v>-4.7899999999999998E-2</v>
+      </c>
+      <c r="D211">
+        <v>0.25209999999999999</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B212">
+        <v>0.48459999999999998</v>
+      </c>
+      <c r="C212">
+        <v>-4.6600000000000003E-2</v>
+      </c>
+      <c r="D212">
+        <v>0.25340000000000001</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B213">
+        <v>0.4793</v>
+      </c>
+      <c r="C213">
+        <v>-4.4900000000000002E-2</v>
+      </c>
+      <c r="D213">
+        <v>0.25509999999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B214">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="C214">
+        <v>-4.2900000000000001E-2</v>
+      </c>
+      <c r="D214">
+        <v>0.2571</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B215">
+        <v>0.46829999999999999</v>
+      </c>
+      <c r="C215">
+        <v>-4.0500000000000001E-2</v>
+      </c>
+      <c r="D215">
+        <v>0.25950000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B216">
+        <v>0.46260000000000001</v>
+      </c>
+      <c r="C216">
+        <v>-3.7900000000000003E-2</v>
+      </c>
+      <c r="D216">
+        <v>0.2621</v>
+      </c>
+    </row>
+    <row r="217" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B217">
+        <v>0.45689999999999997</v>
+      </c>
+      <c r="C217">
+        <v>-3.5099999999999999E-2</v>
+      </c>
+      <c r="D217">
+        <v>0.26490000000000002</v>
+      </c>
+    </row>
+    <row r="218" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B218">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="C218">
+        <v>-3.2000000000000001E-2</v>
+      </c>
+      <c r="D218">
+        <v>0.26800000000000002</v>
+      </c>
+    </row>
+    <row r="219" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B219">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="C219">
+        <v>-2.86E-2</v>
+      </c>
+      <c r="D219">
+        <v>0.27139999999999997</v>
+      </c>
+    </row>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B220">
+        <v>0.43890000000000001</v>
+      </c>
+      <c r="C220">
+        <v>-2.5100000000000001E-2</v>
+      </c>
+      <c r="D220">
+        <v>0.27489999999999998</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B221">
+        <v>0.43280000000000002</v>
+      </c>
+      <c r="C221">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="D221">
+        <v>0.27860000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B222">
+        <v>0.42670000000000002</v>
+      </c>
+      <c r="C222">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="D222">
+        <v>0.28249999999999997</v>
+      </c>
+    </row>
+    <row r="223" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B223">
+        <v>0.4204</v>
+      </c>
+      <c r="C223">
+        <v>-1.35E-2</v>
+      </c>
+      <c r="D223">
+        <v>0.28649999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B224">
+        <v>0.41420000000000001</v>
+      </c>
+      <c r="C224">
+        <v>-9.4000000000000004E-3</v>
+      </c>
+      <c r="D224">
+        <v>0.29060000000000002</v>
+      </c>
+    </row>
+    <row r="225" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B225">
+        <v>0.40789999999999998</v>
+      </c>
+      <c r="C225">
+        <v>-5.1999999999999998E-3</v>
+      </c>
+      <c r="D225">
+        <v>0.29480000000000001</v>
+      </c>
+    </row>
+    <row r="226" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B226">
+        <v>0.40160000000000001</v>
+      </c>
+      <c r="C226">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+      <c r="D226">
+        <v>0.2989</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B227">
+        <v>0.39529999999999998</v>
+      </c>
+      <c r="C227">
+        <v>3.2000000000000002E-3</v>
+      </c>
+      <c r="D227">
+        <v>0.30320000000000003</v>
+      </c>
+    </row>
+    <row r="228" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B228">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="C228">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="D228">
+        <v>0.30730000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B229">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="C229">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D229">
+        <v>0.3115</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B230">
+        <v>0.3765</v>
+      </c>
+      <c r="C230">
+        <v>1.55E-2</v>
+      </c>
+      <c r="D230">
+        <v>0.3155</v>
+      </c>
+    </row>
+    <row r="231" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B231">
+        <v>0.37030000000000002</v>
+      </c>
+      <c r="C231">
+        <v>1.9400000000000001E-2</v>
+      </c>
+      <c r="D231">
+        <v>0.31940000000000002</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B232">
+        <v>0.36409999999999998</v>
+      </c>
+      <c r="C232">
+        <v>2.3199999999999998E-2</v>
+      </c>
+      <c r="D232">
+        <v>0.32319999999999999</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B233">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="C233">
+        <v>2.69E-2</v>
+      </c>
+      <c r="D233">
+        <v>0.32690000000000002</v>
+      </c>
+    </row>
+    <row r="234" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B234">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="C234">
+        <v>3.0300000000000001E-2</v>
+      </c>
+      <c r="D234">
+        <v>0.33029999999999998</v>
+      </c>
+    </row>
+    <row r="235" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B235">
+        <v>0.34610000000000002</v>
+      </c>
+      <c r="C235">
+        <v>3.3500000000000002E-2</v>
+      </c>
+      <c r="D235">
+        <v>0.33350000000000002</v>
+      </c>
+    </row>
+    <row r="236" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B236">
+        <v>0.3402</v>
+      </c>
+      <c r="C236">
+        <v>3.6499999999999998E-2</v>
+      </c>
+      <c r="D236">
+        <v>0.33650000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B237">
+        <v>0.33450000000000002</v>
+      </c>
+      <c r="C237">
+        <v>3.9300000000000002E-2</v>
+      </c>
+      <c r="D237">
+        <v>0.33929999999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B238">
+        <v>0.32890000000000003</v>
+      </c>
+      <c r="C238">
+        <v>4.1700000000000001E-2</v>
+      </c>
+      <c r="D238">
+        <v>0.3417</v>
+      </c>
+    </row>
+    <row r="239" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B239">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="C239">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="D239">
+        <v>0.34389999999999998</v>
+      </c>
+    </row>
+    <row r="240" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B240">
+        <v>0.31809999999999999</v>
+      </c>
+      <c r="C240">
+        <v>4.58E-2</v>
+      </c>
+      <c r="D240">
+        <v>0.3458</v>
+      </c>
+    </row>
+    <row r="241" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B241">
+        <v>0.31290000000000001</v>
+      </c>
+      <c r="C241">
+        <v>4.7300000000000002E-2</v>
+      </c>
+      <c r="D241">
+        <v>0.3473</v>
+      </c>
+    </row>
+    <row r="242" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B242">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="C242">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="D242">
+        <v>0.34849999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B243">
+        <v>0.3029</v>
+      </c>
+      <c r="C243">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="D243">
+        <v>0.3493</v>
+      </c>
+    </row>
+    <row r="244" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B244">
+        <v>0.29820000000000002</v>
+      </c>
+      <c r="C244">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="D244">
+        <v>0.3498</v>
+      </c>
+    </row>
+    <row r="245" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B245">
+        <v>0.29370000000000002</v>
+      </c>
+      <c r="C245">
+        <v>0.05</v>
+      </c>
+      <c r="D245">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="246" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B246">
+        <v>0.2893</v>
+      </c>
+      <c r="C246">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="D246">
+        <v>0.3498</v>
+      </c>
+    </row>
+    <row r="247" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B247">
+        <v>0.28510000000000002</v>
+      </c>
+      <c r="C247">
+        <v>4.9299999999999997E-2</v>
+      </c>
+      <c r="D247">
+        <v>0.3493</v>
+      </c>
+    </row>
+    <row r="248" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B248">
+        <v>0.28120000000000001</v>
+      </c>
+      <c r="C248">
+        <v>4.8399999999999999E-2</v>
+      </c>
+      <c r="D248">
+        <v>0.34839999999999999</v>
+      </c>
+    </row>
+    <row r="249" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B249">
+        <v>0.27750000000000002</v>
+      </c>
+      <c r="C249">
+        <v>4.7100000000000003E-2</v>
+      </c>
+      <c r="D249">
+        <v>0.34710000000000002</v>
+      </c>
+    </row>
+    <row r="250" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B250">
+        <v>0.27389999999999998</v>
+      </c>
+      <c r="C250">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="D250">
+        <v>0.34549999999999997</v>
+      </c>
+    </row>
+    <row r="251" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B251">
+        <v>0.27060000000000001</v>
+      </c>
+      <c r="C251">
+        <v>4.36E-2</v>
+      </c>
+      <c r="D251">
+        <v>0.34360000000000002</v>
+      </c>
+    </row>
+    <row r="252" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B252">
+        <v>0.26750000000000002</v>
+      </c>
+      <c r="C252">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="D252">
+        <v>0.34139999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B253">
+        <v>0.26469999999999999</v>
+      </c>
+      <c r="C253">
+        <v>3.9E-2</v>
+      </c>
+      <c r="D253">
+        <v>0.33900000000000002</v>
+      </c>
+    </row>
+    <row r="254" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B254">
+        <v>0.2621</v>
+      </c>
+      <c r="C254">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="D254">
+        <v>0.3362</v>
+      </c>
+    </row>
+    <row r="255" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B255">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="C255">
+        <v>3.32E-2</v>
+      </c>
+      <c r="D255">
+        <v>0.3332</v>
+      </c>
+    </row>
+    <row r="256" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B256">
+        <v>0.2576</v>
+      </c>
+      <c r="C256">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="D256">
+        <v>0.32990000000000003</v>
+      </c>
+    </row>
+    <row r="257" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B257">
+        <v>0.25580000000000003</v>
+      </c>
+      <c r="C257">
+        <v>2.64E-2</v>
+      </c>
+      <c r="D257">
+        <v>0.32640000000000002</v>
+      </c>
+    </row>
+    <row r="258" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B258">
+        <v>0.25419999999999998</v>
+      </c>
+      <c r="C258">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="D258">
+        <v>0.32279999999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B259">
+        <v>0.25280000000000002</v>
+      </c>
+      <c r="C259">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D259">
+        <v>0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="260" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B260">
+        <v>0.25169999999999998</v>
+      </c>
+      <c r="C260">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="D260">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="261" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B261">
+        <v>0.25090000000000001</v>
+      </c>
+      <c r="C261">
+        <v>1.09E-2</v>
+      </c>
+      <c r="D261">
+        <v>0.31090000000000001</v>
+      </c>
+    </row>
+    <row r="262" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B262">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="C262">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="D262">
+        <v>0.30680000000000002</v>
+      </c>
+    </row>
+    <row r="263" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B263">
+        <v>0.25009999999999999</v>
+      </c>
+      <c r="C263">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D263">
+        <v>0.30259999999999998</v>
+      </c>
+    </row>
+    <row r="264" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B264">
+        <v>0.25</v>
+      </c>
+      <c r="C264">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+      <c r="D264">
+        <v>0.2984</v>
+      </c>
+    </row>
+    <row r="265" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B265">
+        <v>0.25030000000000002</v>
+      </c>
+      <c r="C265">
+        <v>-5.7999999999999996E-3</v>
+      </c>
+      <c r="D265">
+        <v>0.29420000000000002</v>
+      </c>
+    </row>
+    <row r="266" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B266">
+        <v>0.25069999999999998</v>
+      </c>
+      <c r="C266">
+        <v>-9.9000000000000008E-3</v>
+      </c>
+      <c r="D266">
+        <v>0.29010000000000002</v>
+      </c>
+    </row>
+    <row r="267" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B267">
+        <v>0.2515</v>
+      </c>
+      <c r="C267">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="D267">
+        <v>0.28599999999999998</v>
+      </c>
+    </row>
+    <row r="268" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B268">
+        <v>0.2525</v>
+      </c>
+      <c r="C268">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D268">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="269" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B269">
+        <v>0.25380000000000003</v>
+      </c>
+      <c r="C269">
+        <v>-2.18E-2</v>
+      </c>
+      <c r="D269">
+        <v>0.2782</v>
+      </c>
+    </row>
+    <row r="270" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B270">
+        <v>0.25540000000000002</v>
+      </c>
+      <c r="C270">
+        <v>-2.5499999999999998E-2</v>
+      </c>
+      <c r="D270">
+        <v>0.27450000000000002</v>
+      </c>
+    </row>
+    <row r="271" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B271">
+        <v>0.2571</v>
+      </c>
+      <c r="C271">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+      <c r="D271">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="272" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B272">
+        <v>0.25919999999999999</v>
+      </c>
+      <c r="C272">
+        <v>-3.2399999999999998E-2</v>
+      </c>
+      <c r="D272">
+        <v>0.2676</v>
+      </c>
+    </row>
+    <row r="273" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B273">
+        <v>0.26150000000000001</v>
+      </c>
+      <c r="C273">
+        <v>-3.5400000000000001E-2</v>
+      </c>
+      <c r="D273">
+        <v>0.2646</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B274">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="C274">
+        <v>-3.8300000000000001E-2</v>
+      </c>
+      <c r="D274">
+        <v>0.26169999999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B275">
+        <v>0.26679999999999998</v>
+      </c>
+      <c r="C275">
+        <v>-4.0800000000000003E-2</v>
+      </c>
+      <c r="D275">
+        <v>0.25919999999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B276">
+        <v>0.26979999999999998</v>
+      </c>
+      <c r="C276">
+        <v>-4.3099999999999999E-2</v>
+      </c>
+      <c r="D276">
+        <v>0.25690000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B277">
+        <v>0.27310000000000001</v>
+      </c>
+      <c r="C277">
+        <v>-4.5100000000000001E-2</v>
+      </c>
+      <c r="D277">
+        <v>0.25490000000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B278">
+        <v>0.27660000000000001</v>
+      </c>
+      <c r="C278">
+        <v>-4.6800000000000001E-2</v>
+      </c>
+      <c r="D278">
+        <v>0.25319999999999998</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B279">
+        <v>0.2802</v>
+      </c>
+      <c r="C279">
+        <v>-4.8099999999999997E-2</v>
+      </c>
+      <c r="D279">
+        <v>0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B280">
+        <v>0.28410000000000002</v>
+      </c>
+      <c r="C280">
+        <v>-4.9099999999999998E-2</v>
+      </c>
+      <c r="D280">
+        <v>0.25090000000000001</v>
+      </c>
+    </row>
+    <row r="281" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B281">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="C281">
+        <v>-4.9700000000000001E-2</v>
+      </c>
+      <c r="D281">
+        <v>0.25030000000000002</v>
+      </c>
+    </row>
+    <row r="282" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B282">
+        <v>0.29260000000000003</v>
+      </c>
+      <c r="C282">
+        <v>-0.05</v>
+      </c>
+      <c r="D282">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B283">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="C283">
+        <v>-4.99E-2</v>
+      </c>
+      <c r="D283">
+        <v>0.25009999999999999</v>
+      </c>
+    </row>
+    <row r="284" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B284">
+        <v>0.30170000000000002</v>
+      </c>
+      <c r="C284">
+        <v>-4.9500000000000002E-2</v>
+      </c>
+      <c r="D284">
+        <v>0.2505</v>
+      </c>
+    </row>
+    <row r="285" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B285">
+        <v>0.30659999999999998</v>
+      </c>
+      <c r="C285">
+        <v>-4.87E-2</v>
+      </c>
+      <c r="D285">
+        <v>0.25130000000000002</v>
+      </c>
+    </row>
+    <row r="286" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B286">
+        <v>0.31159999999999999</v>
+      </c>
+      <c r="C286">
+        <v>-4.7600000000000003E-2</v>
+      </c>
+      <c r="D286">
+        <v>0.25240000000000001</v>
+      </c>
+    </row>
+    <row r="287" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B287">
+        <v>0.31669999999999998</v>
+      </c>
+      <c r="C287">
+        <v>-4.6199999999999998E-2</v>
+      </c>
+      <c r="D287">
+        <v>0.25380000000000003</v>
+      </c>
+    </row>
+    <row r="288" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B288">
+        <v>0.3221</v>
+      </c>
+      <c r="C288">
+        <v>-4.4400000000000002E-2</v>
+      </c>
+      <c r="D288">
+        <v>0.25559999999999999</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B289">
+        <v>0.32750000000000001</v>
+      </c>
+      <c r="C289">
+        <v>-4.2299999999999997E-2</v>
+      </c>
+      <c r="D289">
+        <v>0.25769999999999998</v>
+      </c>
+    </row>
+    <row r="290" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B290">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="C290">
+        <v>-3.9899999999999998E-2</v>
+      </c>
+      <c r="D290">
+        <v>0.2601</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B291">
+        <v>0.33879999999999999</v>
+      </c>
+      <c r="C291">
+        <v>-3.73E-2</v>
+      </c>
+      <c r="D291">
+        <v>0.26269999999999999</v>
+      </c>
+    </row>
+    <row r="292" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B292">
+        <v>0.34460000000000002</v>
+      </c>
+      <c r="C292">
+        <v>-3.4299999999999997E-2</v>
+      </c>
+      <c r="D292">
+        <v>0.26569999999999999</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B293">
+        <v>0.35049999999999998</v>
+      </c>
+      <c r="C293">
+        <v>-3.1099999999999999E-2</v>
+      </c>
+      <c r="D293">
+        <v>0.26889999999999997</v>
+      </c>
+    </row>
+    <row r="294" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B294">
+        <v>0.35649999999999998</v>
+      </c>
+      <c r="C294">
+        <v>-2.7799999999999998E-2</v>
+      </c>
+      <c r="D294">
+        <v>0.2722</v>
+      </c>
+    </row>
+    <row r="295" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B295">
+        <v>0.36259999999999998</v>
+      </c>
+      <c r="C295">
+        <v>-2.4199999999999999E-2</v>
+      </c>
+      <c r="D295">
+        <v>0.27579999999999999</v>
+      </c>
+    </row>
+    <row r="296" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B296">
+        <v>0.36870000000000003</v>
+      </c>
+      <c r="C296">
+        <v>-2.0400000000000001E-2</v>
+      </c>
+      <c r="D296">
+        <v>0.27960000000000002</v>
+      </c>
+    </row>
+    <row r="297" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B297">
+        <v>0.37490000000000001</v>
+      </c>
+      <c r="C297">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+      <c r="D297">
+        <v>0.28349999999999997</v>
+      </c>
+    </row>
+    <row r="298" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B298">
+        <v>0.38109999999999999</v>
+      </c>
+      <c r="C298">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="D298">
+        <v>0.28749999999999998</v>
+      </c>
+    </row>
+    <row r="299" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B299">
+        <v>0.38740000000000002</v>
+      </c>
+      <c r="C299">
+        <v>-8.3999999999999995E-3</v>
+      </c>
+      <c r="D299">
+        <v>0.29160000000000003</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B300">
+        <v>0.39369999999999999</v>
+      </c>
+      <c r="C300">
+        <v>-4.1999999999999997E-3</v>
+      </c>
+      <c r="D300">
+        <v>0.29580000000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B301">
+        <v>0.4</v>
+      </c>
+      <c r="C301">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
